--- a/log_training_excel/action_count_default_2024-07-14_07-22-01.xlsx
+++ b/log_training_excel/action_count_default_2024-07-14_07-22-01.xlsx
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4364</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -481,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -497,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -505,7 +505,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -513,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>338</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -521,7 +521,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>127</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -529,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -545,7 +545,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -553,7 +553,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>241</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
